--- a/biology/Zoologie/Conus_rosalindensis/Conus_rosalindensis.xlsx
+++ b/biology/Zoologie/Conus_rosalindensis/Conus_rosalindensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus rosalindensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes du Honduras à la Colombie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente sur les bancs et les îles au large du Honduras, du Nicaragua et de la Jamaïque (banc Rosalind). Il n'y a pas de menaces connues pour cette espèce. Elle se trouve principalement dans des zones inhabitées. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente sur les bancs et les îles au large du Honduras, du Nicaragua et de la Jamaïque (banc Rosalind). Il n'y a pas de menaces connues pour cette espèce. Elle se trouve principalement dans des zones inhabitées. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_rosalindensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rosalindensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus rosalindensis a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d) dans « La Conchiglia »[2],[3].
-Synonymes
-Conus (Dauciconus) rosalindensis Petuch, 1998 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus rosalindensis a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d) dans « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_rosalindensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rosalindensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) rosalindensis Petuch, 1998 · appellation alternative
 Conus (Purpuriconus) rosalindensis Petuch, 1998 · non accepté
 Purpuriconus rosalindensis (Petuch, 1998) · non accepté</t>
         </is>
